--- a/자바관련문서/gradle.xlsx
+++ b/자바관련문서/gradle.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="543" yWindow="122" windowWidth="18353" windowHeight="7798"/>
+    <workbookView xWindow="543" yWindow="122" windowWidth="18353" windowHeight="7798" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="refresh" sheetId="1" r:id="rId1"/>
+    <sheet name="build" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -348,6 +348,147 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34506</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681488</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34506" y="8626"/>
+          <a:ext cx="5477774" cy="526211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>window</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> &gt; show view &gt; other : Gradle Tasks </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>선택</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>bootjar </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>더블클릭  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(clean </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>더블 클릭후 하면 좋다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397215</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="595223"/>
+          <a:ext cx="7298347" cy="4744788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -642,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:L16"/>
     </sheetView>
   </sheetViews>
@@ -658,12 +799,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
